--- a/Visitors.xlsx
+++ b/Visitors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\PlagCity2.0\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB453836-7F8D-4FAA-9929-D33C35529F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A780375-33CB-4FBD-B62E-FEA9812DF356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogsCount" sheetId="12" r:id="rId1"/>
@@ -303,10 +303,10 @@
     <t>Госпиталь начал свою работу - часть людей переселили, 5 домов больше не заражены</t>
   </si>
   <si>
-    <t>Сестра отправилась добровольцем в лазарет и заболела. Мэр опечален, и ему совсем не до работы.</t>
-  </si>
-  <si>
-    <t>My sister volunteered for the infirmary and fell ill. The mayor is saddened and has no time for work.</t>
+    <t>Сестра отправилась добровольцем в лазарет и заболела. Мэр опечален, и ему совсем не до работы. Сегодняшний день будет короче.</t>
+  </si>
+  <si>
+    <t>My sister volunteered for the infirmary and fell ill. The mayor is saddened and has no time for work. Today will be short.</t>
   </si>
   <si>
     <t>Лонгерпод доволен знакомством с мэром. Для жителей объявления комендантского часа стало неприятной неожиданностью. (- 5 репутации у богатых, + 15 репутпции у Императора)</t>
@@ -607,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,13 +973,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="33" customHeight="1">
       <c r="A1" s="3">
         <v>16</v>
       </c>
@@ -997,9 +997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DDE358-E23C-4FF8-9934-7F7158B58E13}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1013,13 +1013,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1160,14 +1160,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="81" style="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="60">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="45">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="60">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="60">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="45">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="60">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="60">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="90">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="75">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="75">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="60">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="60">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -1304,18 +1304,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033054D8-7716-4684-85BF-B49D0EF4C9D0}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="61.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
@@ -1452,18 +1452,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62C4D65-E5E2-4682-B6B1-7702651212DF}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="77.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45">
       <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="6" t="s">
         <v>75</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="60">
       <c r="A5" s="6" t="s">
         <v>80</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
         <v>82</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="6" t="s">
         <v>84</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="60">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>88</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
         <v>90</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
         <v>92</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
         <v>94</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="60">
       <c r="A13" s="6" t="s">
         <v>96</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
         <v>98</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="45">
       <c r="A15" s="6" t="s">
         <v>100</v>
       </c>
@@ -1596,14 +1596,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>102</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="6" t="s">
         <v>104</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>108</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="6" t="s">
         <v>114</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" s="6" t="s">
         <v>116</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
         <v>118</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
         <v>120</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
         <v>122</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
         <v>124</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="6" t="s">
         <v>126</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
         <v>128</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="6" t="s">
         <v>130</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="6" t="s">
         <v>132</v>
       </c>
@@ -1744,14 +1744,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.85546875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="6" t="s">
         <v>134</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="6" t="s">
         <v>136</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="6" t="s">
         <v>138</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="6" t="s">
         <v>142</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="75">
       <c r="A8" s="6" t="s">
         <v>144</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
         <v>148</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="45">
       <c r="A13" s="6" t="s">
         <v>150</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="60">
       <c r="A14" s="6" t="s">
         <v>152</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="30">
       <c r="A15" s="6" t="s">
         <v>154</v>
       </c>
@@ -1852,14 +1852,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54" style="1" customWidth="1"/>
     <col min="2" max="2" width="69.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>156</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>162</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45">
       <c r="A7" s="6" t="s">
         <v>164</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
         <v>166</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="6" t="s">
         <v>168</v>
       </c>
@@ -1928,14 +1928,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="6" t="s">
         <v>134</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="60">
       <c r="A5" s="6" t="s">
         <v>170</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
         <v>172</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45">
       <c r="A7" s="6" t="s">
         <v>174</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="45">
       <c r="A10" s="6" t="s">
         <v>146</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="6" t="s">
         <v>176</v>
       </c>
